--- a/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>JOBY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,41 +665,43 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,8 +711,14 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -738,8 +746,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,8 +781,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,8 +816,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,16 +835,18 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>88200</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -838,8 +866,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,37 +901,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>9700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +971,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,26 +987,28 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>114200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,8 +1018,14 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -973,17 +1033,17 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-114200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,8 +1053,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,8 +1072,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1015,16 +1083,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>41900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-62800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1035,19 +1103,25 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-104600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>40600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1064,55 +1138,67 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1900</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="F23" s="3">
         <v>40600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-63700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1122,8 +1208,14 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1133,26 +1225,32 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,26 +1278,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="F26" s="3">
         <v>40600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-63700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1209,26 +1313,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="F27" s="3">
         <v>40600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-63700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1238,8 +1348,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1383,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1418,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1453,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,8 +1488,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1363,16 +1503,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="G32" s="3">
         <v>62800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1383,26 +1523,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="F33" s="3">
         <v>40600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-63700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1558,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,26 +1593,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="F35" s="3">
         <v>40600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-63700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,31 +1628,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1668,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1687,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,26 +1702,28 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1016500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2800</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1559,66 +1733,84 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>346000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>2400</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1646,26 +1838,32 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,26 +1873,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1382500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3800</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,25 +1908,31 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E47" s="3">
         <v>690000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>690200</v>
       </c>
       <c r="F47" s="3">
         <v>690000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>690200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>690000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1733,66 +1943,84 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>44000</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>18700</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +2048,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,37 +2083,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>66600</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,26 +2153,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1532000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>690900</v>
+      </c>
+      <c r="F54" s="3">
         <v>691300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>692400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>693700</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1936,8 +2188,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2207,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,26 +2222,28 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1991,55 +2253,67 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2049,26 +2323,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2078,13 +2358,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2107,26 +2393,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>218200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>80700</v>
+      </c>
+      <c r="F62" s="3">
         <v>82500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>124300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>24400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2428,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2463,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2498,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,26 +2533,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>227300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>81800</v>
+      </c>
+      <c r="F66" s="3">
         <v>83100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>124700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>25400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,8 +2568,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2587,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2618,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2653,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +2688,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,26 +2723,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-481700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-63900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2410,8 +2758,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2793,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2828,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,26 +2863,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1304700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>609100</v>
+      </c>
+      <c r="F76" s="3">
         <v>608200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>567600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>668300</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,8 +2898,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,31 +2933,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2589,26 +2973,32 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-78900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="F81" s="3">
         <v>40600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-63700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +3008,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,8 +3027,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2660,8 +3058,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +3093,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +3128,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +3163,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +3198,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,26 +3233,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-145600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2834,8 +3268,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,8 +3287,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2876,8 +3318,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3353,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,26 +3388,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-690000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +3423,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3442,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3473,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3508,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3543,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,26 +3578,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>693300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3613,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,26 +3648,32 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>940400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,6 +3681,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>JOBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,46 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,8 +717,11 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,8 +755,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,8 +793,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,8 +831,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,20 +849,21 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E12" s="3">
         <v>52100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>88200</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -872,8 +885,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,17 +923,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>9700</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -933,8 +952,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -942,8 +961,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +999,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,29 +1014,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E17" s="3">
         <v>77400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>114200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1050,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1033,20 +1062,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-77400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-114200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1088,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,8 +1106,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1083,19 +1116,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>9600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>41900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-62800</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1109,8 +1142,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1118,14 +1154,14 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-104600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>40600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1144,20 +1180,23 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1170,8 +1209,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1179,29 +1218,32 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-78900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-106500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>40600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-63700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1214,19 +1256,22 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-10500</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1240,8 +1285,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1249,8 +1294,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,29 +1332,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-78900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-106500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>40600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-63700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,29 +1370,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-78900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-106500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>40600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-63700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1408,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1446,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1484,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1522,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,8 +1560,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1503,19 +1572,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-9600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-41900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>62800</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1529,29 +1598,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-78900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-106500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>40600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-63700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1564,8 +1636,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,29 +1674,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-78900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-106500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>40600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-63700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1634,34 +1712,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1755,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1773,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,29 +1789,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>955600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1016500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2800</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1739,17 +1825,20 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>343200</v>
+      </c>
+      <c r="E42" s="3">
         <v>346000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,8 +1854,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1774,17 +1863,20 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,8 +1892,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1809,8 +1901,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,29 +1939,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E45" s="3">
         <v>17600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,29 +1977,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1318500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1382500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3800</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1914,29 +2015,32 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E47" s="3">
         <v>20200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>690000</v>
       </c>
       <c r="F47" s="3">
         <v>690000</v>
       </c>
       <c r="G47" s="3">
+        <v>690000</v>
+      </c>
+      <c r="H47" s="3">
         <v>690200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>690000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,17 +2053,20 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E48" s="3">
         <v>44000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1975,8 +2082,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -1984,17 +2091,20 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E49" s="3">
         <v>18700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2120,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2019,8 +2129,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2167,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,17 +2205,20 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E52" s="3">
         <v>66600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2115,8 +2234,8 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2124,8 +2243,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,29 +2281,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1488400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1532000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>690900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>691300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>692400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>693700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2319,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2337,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,8 +2353,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2233,20 +2363,20 @@
         <v>3600</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>3600</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,17 +2389,20 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2285,8 +2418,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2294,29 +2427,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>400</v>
       </c>
       <c r="G59" s="3">
         <v>400</v>
       </c>
       <c r="H59" s="3">
+        <v>400</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2329,29 +2465,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E60" s="3">
         <v>7600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,17 +2503,20 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2399,29 +2541,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>156400</v>
+      </c>
+      <c r="E62" s="3">
         <v>218200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>80700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>82500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>124300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,8 +2579,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2617,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2655,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,29 +2693,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>171600</v>
+      </c>
+      <c r="E66" s="3">
         <v>227300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>81800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>83100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>124700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2731,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2749,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2785,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2823,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2861,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,29 +2899,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-476600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-481700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-22500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2764,8 +2937,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2975,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3013,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,29 +3051,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1316800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1304700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>609100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>608200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>567600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>668300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2904,8 +3089,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,34 +3127,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,29 +3170,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-78900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-106500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>40600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-63700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3014,8 +3208,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,31 +3226,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>4500</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3064,8 +3262,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3300,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3338,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3376,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3414,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,29 +3452,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-145600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,8 +3490,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,31 +3508,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-11600</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3324,8 +3544,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3582,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,29 +3620,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7500</v>
-      </c>
-      <c r="E94" s="3">
-        <v>200</v>
       </c>
       <c r="F94" s="3">
         <v>200</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-690000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3429,8 +3658,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3676,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3712,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3750,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3788,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,13 +3826,16 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-800</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -3598,15 +3843,15 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>693300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3619,8 +3864,11 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3654,29 +3902,32 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="E102" s="3">
         <v>940400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3687,6 +3938,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>JOBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,52 +665,54 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -720,8 +722,14 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,8 +766,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,8 +810,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +854,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,31 +876,33 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>72100</v>
+      </c>
+      <c r="F12" s="3">
         <v>57300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>52100</v>
       </c>
-      <c r="F12" s="3">
-        <v>88200</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="H12" s="3">
+        <v>54000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>34200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>31800</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -888,8 +916,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,46 +960,58 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>9700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,8 +1048,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,35 +1067,37 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>94300</v>
+      </c>
+      <c r="F17" s="3">
         <v>77300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>77400</v>
       </c>
-      <c r="F17" s="3">
-        <v>114200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1300</v>
-      </c>
       <c r="H17" s="3">
-        <v>900</v>
+        <v>68400</v>
       </c>
       <c r="I17" s="3">
+        <v>45800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1053,8 +1107,14 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1062,26 +1122,26 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-94300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-77400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-114200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H18" s="3">
-        <v>-900</v>
+        <v>-68400</v>
       </c>
       <c r="I18" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1091,8 +1151,14 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,8 +1173,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1116,25 +1184,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>71800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>41900</v>
-      </c>
       <c r="H20" s="3">
-        <v>-62800</v>
+        <v>4400</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+        <v>5200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1145,8 +1213,14 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1154,22 +1228,22 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-66900</v>
+        <v>-57100</v>
       </c>
       <c r="F21" s="3">
-        <v>-104600</v>
+        <v>-1000</v>
       </c>
       <c r="G21" s="3">
-        <v>40600</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-74200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-31600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1183,8 +1257,14 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1192,64 +1272,70 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-78900</v>
       </c>
-      <c r="F23" s="3">
-        <v>-106500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>40600</v>
-      </c>
       <c r="H23" s="3">
-        <v>-63700</v>
+        <v>-65000</v>
       </c>
       <c r="I23" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,46 +1345,58 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-10500</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,35 +1433,41 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="F26" s="3">
         <v>5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-78900</v>
       </c>
-      <c r="F26" s="3">
-        <v>-106500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>40600</v>
-      </c>
       <c r="H26" s="3">
-        <v>-63700</v>
+        <v>-65000</v>
       </c>
       <c r="I26" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1373,35 +1477,41 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="F27" s="3">
         <v>5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-78900</v>
       </c>
-      <c r="F27" s="3">
-        <v>-106500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>40600</v>
-      </c>
       <c r="H27" s="3">
-        <v>-63700</v>
+        <v>-65000</v>
       </c>
       <c r="I27" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1521,14 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1565,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1609,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1653,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,8 +1697,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1572,25 +1712,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-71800</v>
+      </c>
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-41900</v>
-      </c>
       <c r="H32" s="3">
-        <v>62800</v>
+        <v>-4400</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+        <v>-5200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1601,35 +1741,41 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="F33" s="3">
         <v>5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-78900</v>
       </c>
-      <c r="F33" s="3">
-        <v>-106500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>40600</v>
-      </c>
       <c r="H33" s="3">
-        <v>-63700</v>
+        <v>-65000</v>
       </c>
       <c r="I33" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1639,8 +1785,14 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,35 +1829,41 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="F35" s="3">
         <v>5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-78900</v>
       </c>
-      <c r="F35" s="3">
-        <v>-106500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>40600</v>
-      </c>
       <c r="H35" s="3">
-        <v>-63700</v>
+        <v>-65000</v>
       </c>
       <c r="I35" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,40 +1873,46 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1922,14 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1944,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,35 +1962,37 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>311100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>417100</v>
+      </c>
+      <c r="F41" s="3">
         <v>955600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1016500</v>
       </c>
-      <c r="F41" s="3">
-        <v>500</v>
-      </c>
-      <c r="G41" s="3">
-        <v>900</v>
-      </c>
       <c r="H41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I41" s="3">
+        <v>44300</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
         <v>2800</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1828,25 +2002,31 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>840400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>803700</v>
+      </c>
+      <c r="F42" s="3">
         <v>343200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>346000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>375200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1857,34 +2037,40 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F43" s="3">
         <v>2300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>3900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1895,17 +2081,23 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1942,35 +2134,41 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F45" s="3">
         <v>17400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>17600</v>
       </c>
-      <c r="F45" s="3">
-        <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
-      </c>
       <c r="H45" s="3">
-        <v>500</v>
-      </c>
-      <c r="I45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,35 +2178,41 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1177600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1242600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1318500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1382500</v>
       </c>
-      <c r="F46" s="3">
-        <v>800</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1300</v>
-      </c>
       <c r="H46" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I46" s="3">
+        <v>430500</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
         <v>3800</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,35 +2222,41 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F47" s="3">
         <v>20300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>20200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
+        <v>13100</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>690000</v>
       </c>
-      <c r="G47" s="3">
-        <v>690000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>690200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>690000</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,25 +2266,31 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F48" s="3">
         <v>53200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>44000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>41600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2085,34 +2301,40 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E49" s="3">
         <v>25300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
+        <v>25300</v>
+      </c>
+      <c r="G49" s="3">
         <v>18700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>19700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2123,17 +2345,23 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2398,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,25 +2442,31 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>70500</v>
+      </c>
+      <c r="F52" s="3">
         <v>71100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>66600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>61300</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2237,17 +2477,23 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,35 +2530,41 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1356300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1423300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1488400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1532000</v>
       </c>
-      <c r="F54" s="3">
-        <v>690900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>691300</v>
-      </c>
       <c r="H54" s="3">
-        <v>692400</v>
-      </c>
-      <c r="I54" s="3">
+        <v>566100</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" s="3">
         <v>693700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2574,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2596,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,35 +2614,37 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
       <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2392,25 +2654,31 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2421,44 +2689,50 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F59" s="3">
         <v>9200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
-        <v>900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
-      </c>
       <c r="H59" s="3">
-        <v>400</v>
-      </c>
-      <c r="I59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,35 +2742,41 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F60" s="3">
         <v>13800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
-        <v>600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2506,25 +2786,31 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>1400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>78600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2544,35 +2830,41 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>140700</v>
+      </c>
+      <c r="F62" s="3">
         <v>156400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>218200</v>
       </c>
-      <c r="F62" s="3">
-        <v>80700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>82500</v>
-      </c>
       <c r="H62" s="3">
-        <v>124300</v>
-      </c>
-      <c r="I62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
         <v>24400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2874,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2918,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2962,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,35 +3006,41 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>158900</v>
+      </c>
+      <c r="F66" s="3">
         <v>171600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>227300</v>
       </c>
-      <c r="F66" s="3">
-        <v>81800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>83100</v>
-      </c>
       <c r="H66" s="3">
-        <v>124700</v>
-      </c>
-      <c r="I66" s="3">
+        <v>93800</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K66" s="3">
         <v>25400</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +3050,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +3072,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +3112,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +3156,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2844,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>845900</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2864,8 +3200,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,35 +3244,41 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-588500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-538900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-476600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-481700</v>
       </c>
-      <c r="F72" s="3">
-        <v>-22500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-23300</v>
-      </c>
       <c r="H72" s="3">
-        <v>-63900</v>
-      </c>
-      <c r="I72" s="3">
+        <v>-402800</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2940,8 +3288,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3332,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3376,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,35 +3420,41 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1228700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1264400</v>
+      </c>
+      <c r="F76" s="3">
         <v>1316800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1304700</v>
       </c>
-      <c r="F76" s="3">
-        <v>609100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>608200</v>
-      </c>
       <c r="H76" s="3">
-        <v>567600</v>
-      </c>
-      <c r="I76" s="3">
+        <v>-373700</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
         <v>668300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3464,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,40 +3508,46 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3173,35 +3557,41 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="F81" s="3">
         <v>5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-78900</v>
       </c>
-      <c r="F81" s="3">
-        <v>-106500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>40600</v>
-      </c>
       <c r="H81" s="3">
-        <v>-63700</v>
+        <v>-65000</v>
       </c>
       <c r="I81" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3211,8 +3601,14 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,37 +3623,39 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F83" s="3">
         <v>4500</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="G83" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3265,8 +3663,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3707,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3751,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3795,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3839,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,35 +3883,41 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-48700</v>
       </c>
-      <c r="E89" s="3">
-        <v>-145600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1400</v>
-      </c>
       <c r="G89" s="3">
-        <v>-1100</v>
+        <v>-69500</v>
       </c>
       <c r="H89" s="3">
-        <v>-600</v>
+        <v>-47900</v>
       </c>
       <c r="I89" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3493,8 +3927,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,37 +3949,39 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-11600</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="G91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3547,8 +3989,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +4033,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,35 +4077,41 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-476100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11400</v>
       </c>
-      <c r="E94" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>200</v>
-      </c>
       <c r="G94" s="3">
-        <v>200</v>
+        <v>21600</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-23100</v>
       </c>
       <c r="I94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>42800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-690000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +4121,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,8 +4143,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3715,8 +4183,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +4227,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4271,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,35 +4315,41 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>1020100</v>
       </c>
       <c r="H100" s="3">
-        <v>-400</v>
+        <v>-1500</v>
       </c>
       <c r="I100" s="3">
+        <v>75000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>693300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3867,8 +4359,14 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3905,35 +4403,41 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-103800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-537500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-60900</v>
       </c>
-      <c r="E102" s="3">
-        <v>940400</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-1200</v>
-      </c>
       <c r="G102" s="3">
-        <v>-800</v>
+        <v>972200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1100</v>
+        <v>-72400</v>
       </c>
       <c r="I102" s="3">
+        <v>39400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3941,6 +4445,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
   <si>
     <t>JOBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,8 +729,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +776,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,35 +891,36 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>73900</v>
+      </c>
+      <c r="E12" s="3">
         <v>74200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>72100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>57300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>52100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>54000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>34200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>31800</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,34 +983,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1001,8 +1021,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,38 +1095,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E17" s="3">
         <v>99400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>94300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>77300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>77400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>68400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>45800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,8 +1140,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,29 +1152,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-94300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-77300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-77400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-68400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-45800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-40200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1208,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,28 +1218,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>49900</v>
+      </c>
+      <c r="F20" s="3">
         <v>32100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>71800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1219,8 +1253,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1228,26 +1265,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-57100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-74200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-60000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-37300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-31600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1278,28 +1318,28 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1307,38 +1347,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-49500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-62300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-78900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-65000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-41500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-33900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,8 +1394,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,11 +1409,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-10500</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1377,8 +1423,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1386,8 +1432,8 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,38 +1488,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-49600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-62300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-78900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-65000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-41500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-33900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,38 +1535,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-49600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-62300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-78900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-65000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-41500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-33900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,8 +1770,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1712,28 +1782,28 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-32100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-71800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1747,38 +1817,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-49600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-62300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-78900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-65000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-41500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-33900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,38 +1911,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-49600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-62300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-78900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-65000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-41500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-33900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,43 +1958,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,38 +2050,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>193800</v>
+      </c>
+      <c r="E41" s="3">
         <v>311100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>417100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>955600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1016500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3">
         <v>2800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,29 +2095,32 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>880700</v>
+      </c>
+      <c r="E42" s="3">
         <v>840400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>803700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>343200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>346000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>375200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,8 +2133,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2052,29 +2142,32 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2087,8 +2180,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2096,8 +2189,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,38 +2236,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E45" s="3">
         <v>21900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,38 +2283,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1104000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1177600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1242600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1318500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1382500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>430500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
         <v>3800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,38 +2330,41 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E47" s="3">
         <v>20100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>27000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>13100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>690000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2272,29 +2377,32 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E48" s="3">
         <v>61000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>57900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>53200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>41600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2307,8 +2415,8 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2316,29 +2424,32 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E49" s="3">
         <v>29600</v>
-      </c>
-      <c r="E49" s="3">
-        <v>25300</v>
       </c>
       <c r="F49" s="3">
         <v>25300</v>
       </c>
       <c r="G49" s="3">
+        <v>25300</v>
+      </c>
+      <c r="H49" s="3">
         <v>18700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>19700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2351,8 +2462,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,29 +2565,32 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E52" s="3">
         <v>68000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>70500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>71100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>66600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>61300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2483,8 +2603,8 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,38 +2659,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1273800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1356300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1423300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1488400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1532000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>566100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3">
         <v>693700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,38 +2746,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3600</v>
       </c>
       <c r="G57" s="3">
         <v>3600</v>
       </c>
       <c r="H57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,8 +2791,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2671,18 +2805,18 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,8 +2829,8 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2704,38 +2838,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E59" s="3">
         <v>28100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,38 +2885,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E60" s="3">
         <v>30000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,8 +2932,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,17 +2947,17 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>1400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>78600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2836,38 +2979,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E62" s="3">
         <v>97700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>140700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>156400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>218200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
         <v>24400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,38 +3167,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E66" s="3">
         <v>127700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>158900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>171600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>227300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>93800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3">
         <v>25400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3180,11 +3348,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>845900</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,38 +3421,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-667700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-588500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-538900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-476600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-481700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-402800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
         <v>-200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,38 +3609,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1160200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1228700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1264400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1316800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1304700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-373700</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3">
         <v>668300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,43 +3703,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,38 +3755,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-49600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-62300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-78900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-65000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-41500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-33900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,40 +3823,41 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>5900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,38 +4103,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-53100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-61400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-48700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-69500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-47900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-29700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-30300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,40 +4171,41 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5600</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,38 +4310,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-50700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-476100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>21600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>42800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-690000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,38 +4564,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1020100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>75000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>693300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,38 +4658,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-117200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-103800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-537500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-60900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>972200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-72400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>39400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>JOBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,61 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,8 +732,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +782,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +832,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +882,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,38 +904,39 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E12" s="3">
         <v>73900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>74200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>72100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>57300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>52100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>54000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>34200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>31800</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +952,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,37 +1002,40 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1024,8 +1043,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1033,8 +1052,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1102,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,41 +1121,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E17" s="3">
         <v>97100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>99400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>94300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>77300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>77400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>68400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>45800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,8 +1169,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,32 +1181,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-99400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-94300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-77300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-77400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-68400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-45800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-40200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1219,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1241,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,31 +1251,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F20" s="3">
         <v>49900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>32100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>71800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1289,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1265,29 +1301,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-72800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-43700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-57100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-74200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-60000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-37300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-31600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1339,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1321,28 +1360,28 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1350,41 +1389,44 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-79200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-49500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-62300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-78900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-65000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-41500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,13 +1439,16 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1412,11 +1457,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-10500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1426,8 +1471,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1435,8 +1480,8 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1444,8 +1489,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,41 +1539,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-79200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-49600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-62300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-78900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-65000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-41500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-33900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,41 +1589,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-79200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-49600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-62300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-78900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-65000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-41500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-33900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1639,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1689,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1739,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1839,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1782,31 +1851,31 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-49900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-32100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-71800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1820,41 +1889,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-79200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-49600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-62300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-78900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-65000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-41500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-33900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1939,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,41 +1989,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-79200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-49600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-62300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-78900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-65000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-41500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-33900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,46 +2039,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2094,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,41 +2136,42 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E41" s="3">
         <v>193800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>311100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>417100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>955600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1016500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3">
         <v>2800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,32 +2184,35 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>910700</v>
+      </c>
+      <c r="E42" s="3">
         <v>880700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>840400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>803700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>343200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>346000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>375200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2225,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2145,32 +2234,35 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2275,8 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2192,8 +2284,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,8 +2334,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2248,32 +2346,32 @@
         <v>23400</v>
       </c>
       <c r="E45" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F45" s="3">
         <v>21900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,41 +2384,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1084200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1104000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1177600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1242600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1318500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1382500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>430500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3">
         <v>3800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,41 +2434,44 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>72100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>20100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>27000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>13100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>690000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2380,32 +2484,35 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>117300</v>
+      </c>
+      <c r="E48" s="3">
         <v>63000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>61000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>57900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>53200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>44000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>41600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2418,8 +2525,8 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2427,32 +2534,35 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E49" s="3">
         <v>28200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>29600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>25300</v>
       </c>
       <c r="G49" s="3">
         <v>25300</v>
       </c>
       <c r="H49" s="3">
+        <v>25300</v>
+      </c>
+      <c r="I49" s="3">
         <v>18700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>19700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2465,8 +2575,8 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2474,8 +2584,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,32 +2684,35 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>68000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>70500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>71100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>66600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>61300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2606,8 +2725,8 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2615,8 +2734,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,41 +2784,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1293000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1273800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1356300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1423300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1488400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1532000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>566100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3">
         <v>693700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2834,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,41 +2876,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3600</v>
       </c>
       <c r="H57" s="3">
         <v>3600</v>
       </c>
       <c r="I57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J57" s="3">
         <v>5500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,13 +2924,16 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2808,18 +2941,18 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2832,8 +2965,8 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2841,41 +2974,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E59" s="3">
         <v>24500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,41 +3024,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E60" s="3">
         <v>28800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,8 +3074,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2950,17 +3092,17 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>1400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>78600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2982,41 +3124,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E62" s="3">
         <v>84900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>97700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>140700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>156400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>218200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
         <v>24400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3174,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,41 +3324,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E66" s="3">
         <v>113700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>127700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>158900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>171600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>227300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>93800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3">
         <v>25400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3374,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3351,11 +3518,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>845900</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3377,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,41 +3594,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-734700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-667700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-588500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-538900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-476600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-481700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-402800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3644,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,41 +3794,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1164700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1160200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1228700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1264400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1316800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1304700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-373700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3">
         <v>668300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3844,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3894,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,41 +3949,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-79200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-49600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-62300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-78900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-65000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-41500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-33900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +3999,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,43 +4021,44 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E83" s="3">
         <v>6300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3871,8 +4069,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,41 +4319,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-68300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-53100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-61400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-48700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-69500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-47900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-29700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-30300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4369,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,43 +4391,44 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5600</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4219,8 +4439,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,41 +4539,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-49100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-50700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-476100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>21600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>42800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-690000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4589,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4611,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4659,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,41 +4809,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1020100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>75000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>693300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4859,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,41 +4909,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-117200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-103800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-537500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-60900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>972200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-72400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>39400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4957,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
   <si>
     <t>JOBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,65 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -735,8 +736,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,8 +789,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,8 +842,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,8 +895,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,41 +918,42 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E12" s="3">
         <v>76100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>73900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>74200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>72100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>57300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>52100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>54000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>31800</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -955,8 +969,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,40 +1022,43 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1046,8 +1066,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1055,8 +1075,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,8 +1128,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,44 +1148,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>99700</v>
+      </c>
+      <c r="E17" s="3">
         <v>101400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>97100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>99400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>94300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>77300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>77400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>68400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>45800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1172,8 +1199,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1181,35 +1211,35 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-97100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-99400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-94300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-77300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-77400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-68400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-45800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-40200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1252,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,8 +1275,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1251,34 +1285,34 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>34500</v>
+      </c>
+      <c r="F20" s="3">
         <v>18000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>49900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>32100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>71800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1292,8 +1326,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1301,32 +1338,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-72800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-43700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-57100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-74200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-60000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-37300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-31600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1342,13 +1379,16 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1363,28 +1403,28 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1392,44 +1432,47 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-113400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-66900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-79200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-49500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-62300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-78900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-65000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-41500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-33900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,17 +1485,20 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1460,11 +1506,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-10500</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1474,8 +1520,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1483,8 +1529,8 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1492,8 +1538,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,44 +1591,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-113400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-66900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-79200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-49600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-62300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-78900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-65000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-41500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-33900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,44 +1644,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-113400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-66900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-79200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-49600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-62300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-78900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-65000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-41500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-33900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1697,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1742,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,8 +1909,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1851,34 +1921,34 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-18000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-49900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-32100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-71800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1892,44 +1962,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-113400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-66900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-79200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-49600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-62300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-78900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-65000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-41500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-33900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1942,8 +2015,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,44 +2068,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-113400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-66900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-79200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-49600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-62300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-78900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-65000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-41500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-33900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,49 +2121,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2179,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,44 +2223,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E41" s="3">
         <v>146100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>193800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>311100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>417100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>955600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1016500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3">
         <v>2800</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,35 +2274,38 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>928000</v>
+      </c>
+      <c r="E42" s="3">
         <v>910700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>880700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>840400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>803700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>343200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>346000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>375200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,8 +2318,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2237,35 +2327,38 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2371,8 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2287,8 +2380,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2337,44 +2433,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23400</v>
+        <v>24500</v>
       </c>
       <c r="E45" s="3">
         <v>23400</v>
       </c>
       <c r="F45" s="3">
+        <v>23400</v>
+      </c>
+      <c r="G45" s="3">
         <v>21900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,44 +2486,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1013100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1084200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1104000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1177600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1242600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1318500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1382500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>430500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3">
         <v>3800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,44 +2539,47 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>72100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>27000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>13100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>690000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2487,35 +2592,38 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>117100</v>
+      </c>
+      <c r="E48" s="3">
         <v>117300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>63000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>61000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>57900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>53200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>44000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>41600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2636,8 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2537,35 +2645,38 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E49" s="3">
         <v>26600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>28200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>29600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>25300</v>
       </c>
       <c r="H49" s="3">
         <v>25300</v>
       </c>
       <c r="I49" s="3">
+        <v>25300</v>
+      </c>
+      <c r="J49" s="3">
         <v>18700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2689,8 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2587,8 +2698,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,35 +2804,38 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E52" s="3">
         <v>65000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>68000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>70500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>71100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>66600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>61300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,8 +2848,8 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2737,8 +2857,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,44 +2910,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1218700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1293000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1273800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1356300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1423300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1488400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1532000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>566100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3">
         <v>693700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2837,8 +2963,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,44 +3007,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E57" s="3">
         <v>7700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3600</v>
       </c>
       <c r="I57" s="3">
         <v>3600</v>
       </c>
       <c r="J57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2927,16 +3058,19 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2944,18 +3078,18 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3102,8 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -2977,44 +3111,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E59" s="3">
         <v>22500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,44 +3164,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E60" s="3">
         <v>30200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3077,8 +3217,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3095,17 +3238,17 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>1400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>78600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3127,44 +3270,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>118900</v>
+      </c>
+      <c r="E62" s="3">
         <v>98000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>84900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>97700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>140700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>156400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>218200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3">
         <v>24400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,8 +3323,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,44 +3482,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E66" s="3">
         <v>128200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>113700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>127700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>158900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>171600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>227300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>93800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3">
         <v>25400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3377,8 +3535,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3521,11 +3689,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>845900</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3547,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,44 +3768,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-848000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-734700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-667700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-588500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-538900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-476600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-481700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-402800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,8 +3821,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,44 +3980,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1069500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1164700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1160200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1228700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1264400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1316800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1304700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-373700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3">
         <v>668300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3847,8 +4033,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,49 +4086,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3952,44 +4144,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-113400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-66900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-79200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-49600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-62300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-78900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-65000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-41500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-33900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4197,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,46 +4220,47 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4072,8 +4271,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,44 +4536,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-53100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-68300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-53100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-61400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-48700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-69500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-47900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-29700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-30300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4372,8 +4589,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,46 +4612,47 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5600</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4442,8 +4663,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,44 +4769,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-54800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-49100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-50700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-476100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>21600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>42800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-690000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4592,8 +4822,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4662,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,44 +5055,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>60200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1020100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>75000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>693300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4862,8 +5108,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4912,44 +5161,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-47700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-117200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-103800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-537500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-60900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>972200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-72400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4960,6 +5212,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>JOBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,69 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -739,8 +740,11 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -792,8 +796,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,8 +852,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,44 +932,45 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E12" s="3">
         <v>75500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>76100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>73900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>74200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>72100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>57300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>52100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>54000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>34200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>31800</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -972,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,43 +1042,46 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1069,8 +1089,8 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1078,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,47 +1175,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E17" s="3">
         <v>99700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>101400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>97100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>99400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>94300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>77300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>77400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>40200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1202,8 +1229,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,38 +1241,38 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-101400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-97100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-99400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-94300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-77300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-77400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-68400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-45800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-40200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1255,8 +1285,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,8 +1309,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1285,37 +1319,37 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F20" s="3">
         <v>34500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>18000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>49900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>32100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>71800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1329,8 +1363,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1338,35 +1375,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-106300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-60300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-72800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-43700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-57100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-74200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-60000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-37300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-31600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,16 +1419,19 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1406,28 +1446,28 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1435,47 +1475,50 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-286000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-113400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-66900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-79200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-49500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-62300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-78900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-65000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-41500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-33900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1488,20 +1531,23 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1509,11 +1555,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-10500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1523,8 +1569,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1532,8 +1578,8 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1541,8 +1587,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1594,47 +1643,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-286100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-113400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-66900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-79200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-49600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-62300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-78900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-65000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-41500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,47 +1699,50 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-286100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-113400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-66900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-79200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-49600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-62300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-78900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-65000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-41500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-33900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1700,8 +1755,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1806,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1859,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1912,8 +1979,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1921,37 +1991,37 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-34500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-18000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-49900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-32100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-71800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1965,47 +2035,50 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-286100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-113400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-66900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-79200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-49600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-62300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-78900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-65000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-41500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-33900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2091,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,47 +2147,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-286100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-113400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-66900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-79200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-49600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-62300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-78900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-65000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-41500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-33900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,52 +2203,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2182,8 +2264,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2203,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,47 +2310,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>382700</v>
+      </c>
+      <c r="E41" s="3">
         <v>49800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>146100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>193800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>311100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>417100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>955600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1016500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3">
         <v>2800</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,38 +2364,41 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>812100</v>
+      </c>
+      <c r="E42" s="3">
         <v>928000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>910700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>880700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>840400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>803700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>343200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>346000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>375200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2411,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2330,38 +2420,41 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E43" s="3">
         <v>10900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2374,8 +2467,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2383,8 +2476,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2436,47 +2532,50 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E45" s="3">
         <v>24500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>23400</v>
       </c>
       <c r="F45" s="3">
         <v>23400</v>
       </c>
       <c r="G45" s="3">
+        <v>23400</v>
+      </c>
+      <c r="H45" s="3">
         <v>21900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,47 +2588,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1224800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1013100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1084200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1104000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1177600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1242600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1318500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1382500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>430500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3">
         <v>3800</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2542,47 +2644,50 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>72100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>27000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>20300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>690000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2595,38 +2700,41 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E48" s="3">
         <v>117100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>117300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>63000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>61000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>57900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>53200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>44000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,8 +2747,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2648,38 +2756,41 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E49" s="3">
         <v>25100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>26600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>28200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>25300</v>
       </c>
       <c r="I49" s="3">
         <v>25300</v>
       </c>
       <c r="J49" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K49" s="3">
         <v>18700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2692,8 +2803,8 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2701,8 +2812,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2807,38 +2924,41 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E52" s="3">
         <v>63400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>65000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>68000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>70500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>71100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>66600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2851,8 +2971,8 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2860,8 +2980,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2913,47 +3036,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1426700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1218700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1293000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1273800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1356300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1423300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1488400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1532000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>566100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3">
         <v>693700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2966,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3008,47 +3138,48 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3600</v>
       </c>
       <c r="J57" s="3">
         <v>3600</v>
       </c>
       <c r="K57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L57" s="3">
         <v>5500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3061,19 +3192,22 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -3081,18 +3215,18 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3105,8 +3239,8 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3114,47 +3248,50 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E59" s="3">
         <v>26400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3167,47 +3304,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E60" s="3">
         <v>30300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>28800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3360,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3241,17 +3384,17 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>1400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>78600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3273,47 +3416,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>298100</v>
+      </c>
+      <c r="E62" s="3">
         <v>118900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>98000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>84900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>97700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>140700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>156400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>218200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3">
         <v>24400</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3326,8 +3472,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3379,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3485,47 +3640,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>342200</v>
+      </c>
+      <c r="E66" s="3">
         <v>149200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>128200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>113700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>127700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>158900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>171600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>227300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>93800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3">
         <v>25400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3538,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3692,11 +3860,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>845900</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3718,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3771,47 +3942,50 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1134100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-848000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-734700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-667700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-588500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-538900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-476600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-481700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-402800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3824,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3877,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3930,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3983,47 +4166,50 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1084600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1069500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1164700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1160200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1228700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1264400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1316800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1304700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-373700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3">
         <v>668300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4036,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4089,52 +4278,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4147,47 +4339,50 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-286100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-113400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-66900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-79200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-49600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-62300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-78900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-65000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-41500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-33900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4200,8 +4395,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4221,49 +4419,50 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E83" s="3">
         <v>7100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2200</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4274,8 +4473,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4380,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4433,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4486,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,47 +4753,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-78600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-53100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-68300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-53100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-61400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-48700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-69500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-47900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-29700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-30300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4592,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,49 +4833,50 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5600</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4666,8 +4887,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4719,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4772,47 +4999,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-54800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-49100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-50700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-476100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>21600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>42800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-690000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4825,8 +5055,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4846,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4899,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4952,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5005,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5058,47 +5301,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>284500</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>60200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1020100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>75000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>693300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5111,8 +5357,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5164,47 +5413,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>330600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-97300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-47700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-117200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-103800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-537500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-60900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>972200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-72400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5215,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JOBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
   <si>
     <t>JOBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,8 +744,11 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,8 +803,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,8 +862,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +921,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,47 +946,48 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E12" s="3">
         <v>88800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>75500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>76100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>73900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>74200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>72100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>57300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>52100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>54000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>34200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>31800</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1003,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +1062,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,35 +1076,35 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1092,8 +1112,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1101,8 +1121,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1180,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,50 +1202,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E17" s="3">
         <v>116000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>99700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>101400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>97100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>99400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>94300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>77300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>77400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>68400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>40200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1232,8 +1259,11 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1241,41 +1271,41 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-99700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-101400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-97100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-99400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-94300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-77300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-77400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-68400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-45800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-40200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1318,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,8 +1343,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1319,40 +1353,40 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-170100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-13600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>34500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>18000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>49900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>32100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>71800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1366,8 +1400,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1375,38 +1412,38 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-278600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-106300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-60300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-72800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-43700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-57100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-74200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-60000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-37300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-31600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1459,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1433,8 +1473,8 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1449,28 +1489,28 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1478,50 +1518,53 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-286000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-113400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-66900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-79200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-49500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-62300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-78900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-65000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-41500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-33900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1534,23 +1577,26 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1558,11 +1604,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-10500</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1572,8 +1618,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1581,8 +1627,8 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1590,8 +1636,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,50 +1695,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-286100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-113400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-66900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-79200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-49600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-62300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-78900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-65000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-41500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-33900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,50 +1754,53 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-286100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-113400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-66900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-79200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-49600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-62300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-78900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-65000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-41500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-33900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1758,8 +1813,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1872,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +1990,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,8 +2049,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1991,40 +2061,40 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>170100</v>
+      </c>
+      <c r="F32" s="3">
         <v>13600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-34500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-18000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-49900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-32100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-71800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -2038,50 +2108,53 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-286100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-113400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-66900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-79200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-49600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-62300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-78900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-65000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-41500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-33900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,8 +2167,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,50 +2226,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-286100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-113400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-66900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-79200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-49600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-62300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-78900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-65000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-41500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-33900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2206,55 +2285,58 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2349,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2374,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,50 +2397,51 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>480400</v>
+      </c>
+      <c r="E41" s="3">
         <v>382700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>146100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>193800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>311100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>417100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>955600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1016500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3">
         <v>2800</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,41 +2454,44 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>632100</v>
+      </c>
+      <c r="E42" s="3">
         <v>812100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>928000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>910700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>880700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>840400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>803700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>343200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>346000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>375200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2504,8 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2423,41 +2513,44 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E43" s="3">
         <v>9600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,8 +2563,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2479,8 +2572,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2535,50 +2631,53 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E45" s="3">
         <v>20300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>23400</v>
       </c>
       <c r="G45" s="3">
         <v>23400</v>
       </c>
       <c r="H45" s="3">
+        <v>23400</v>
+      </c>
+      <c r="I45" s="3">
         <v>21900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2591,50 +2690,53 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1138200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1224800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1013100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1084200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1104000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1177600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1242600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1318500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1382500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>430500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3">
         <v>3800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,8 +2749,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2658,39 +2763,39 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>72100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>20100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>27000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>690000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,41 +2808,44 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E48" s="3">
         <v>116500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>117100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>117300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>63000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>61000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>57900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>53200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,8 +2858,8 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2759,41 +2867,44 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E49" s="3">
         <v>23600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>25100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>26600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>28200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>25300</v>
       </c>
       <c r="J49" s="3">
         <v>25300</v>
       </c>
       <c r="K49" s="3">
+        <v>25300</v>
+      </c>
+      <c r="L49" s="3">
         <v>18700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2806,8 +2917,8 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2815,8 +2926,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +2985,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,41 +3044,44 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>61300</v>
+      </c>
+      <c r="E52" s="3">
         <v>61900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>63400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>65000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>68000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>70500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>71100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>66600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2974,8 +3094,8 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2983,8 +3103,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,50 +3162,53 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1349600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1426700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1218700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1293000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1273800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1356300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1423300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1488400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1532000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>566100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3">
         <v>693700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3221,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3246,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,50 +3269,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3600</v>
       </c>
       <c r="K57" s="3">
         <v>3600</v>
       </c>
       <c r="L57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M57" s="3">
         <v>5500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3195,22 +3326,25 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -3218,18 +3352,18 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3242,8 +3376,8 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3251,50 +3385,53 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E59" s="3">
         <v>40000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3307,50 +3444,53 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E60" s="3">
         <v>44100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>28800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>30000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3363,8 +3503,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3387,17 +3530,17 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>78600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3419,50 +3562,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>190300</v>
+      </c>
+      <c r="E62" s="3">
         <v>298100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>118900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>98000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>84900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>97700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>140700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>156400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>218200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3">
         <v>24400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3621,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3739,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,50 +3798,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>240300</v>
+      </c>
+      <c r="E66" s="3">
         <v>342200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>149200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>128200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>113700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>127700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>158900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>171600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>227300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>93800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3">
         <v>25400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +3857,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +3882,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +3939,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +3998,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3863,11 +4031,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>845900</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3889,8 +4057,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,50 +4116,53 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1132600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1134100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-848000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-734700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-667700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-588500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-538900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-476600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-481700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-402800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4001,8 +4175,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4234,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4293,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,50 +4352,53 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1109300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1084600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1069500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1164700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1160200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1228700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1264400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1316800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1304700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-373700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3">
         <v>668300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4225,8 +4411,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,55 +4470,58 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,50 +4534,53 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-286100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-113400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-66900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-79200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-49600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-62300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-78900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-65000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-41500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-33900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4398,8 +4593,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,52 +4618,53 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E83" s="3">
         <v>7500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4476,8 +4675,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4734,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4793,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +4852,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +4911,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,50 +4970,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-80200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-71700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-78600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-53100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-68300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-53100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-61400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-48700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-69500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-47900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-29700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-30300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4812,8 +5029,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,52 +5054,53 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5600</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4890,8 +5111,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5170,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,50 +5229,53 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>177900</v>
+      </c>
+      <c r="E94" s="3">
         <v>117900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-49100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-50700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-476100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>21600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>42800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-690000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5058,8 +5288,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5313,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5370,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5429,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5488,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,50 +5547,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>284500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>60200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1020100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>75000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>693300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5606,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5416,50 +5665,53 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E102" s="3">
         <v>330600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-97300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-47700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-117200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-103800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-537500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-60900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>972200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-72400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2800</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,6 +5722,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
